--- a/simulation_data/iterative_algorithm/i_error_level_14_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_14_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>97.92005810264938</v>
+        <v>87.50109295796985</v>
       </c>
       <c r="D2" t="n">
-        <v>33.80865995352499</v>
+        <v>36.84493389423761</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.73623237352501</v>
+        <v>91.69892079571996</v>
       </c>
       <c r="D3" t="n">
-        <v>37.76173462616418</v>
+        <v>29.96638897255775</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>95.70052709031535</v>
+        <v>89.32462705821685</v>
       </c>
       <c r="D4" t="n">
-        <v>37.31388528853794</v>
+        <v>33.67162448346313</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>80.55703910883622</v>
+        <v>83.85943325160875</v>
       </c>
       <c r="D5" t="n">
-        <v>38.07763118753732</v>
+        <v>33.07750248592709</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>81.59514947972977</v>
+        <v>84.95131616663632</v>
       </c>
       <c r="D6" t="n">
-        <v>38.75837292992826</v>
+        <v>31.09900153739387</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.89572186750247</v>
+        <v>81.38018797327743</v>
       </c>
       <c r="D7" t="n">
-        <v>38.69241235722994</v>
+        <v>28.26678697712581</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.19344802817346</v>
+        <v>82.76285136890911</v>
       </c>
       <c r="D8" t="n">
-        <v>31.87727176915877</v>
+        <v>37.18341163712213</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>81.13811976501015</v>
+        <v>86.65135473998609</v>
       </c>
       <c r="D9" t="n">
-        <v>40.33820962204584</v>
+        <v>34.58641177707278</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.1357566447777</v>
+        <v>75.66399496602898</v>
       </c>
       <c r="D10" t="n">
-        <v>34.25659683278333</v>
+        <v>32.35257597366078</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.10421255700606</v>
+        <v>82.2213857905802</v>
       </c>
       <c r="D11" t="n">
-        <v>37.45420040339744</v>
+        <v>40.03004389077178</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>71.28977595316395</v>
+        <v>79.99722589432855</v>
       </c>
       <c r="D12" t="n">
-        <v>36.46391361836168</v>
+        <v>32.70562721363225</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>83.70979374429503</v>
+        <v>72.95840350073543</v>
       </c>
       <c r="D13" t="n">
-        <v>41.35311544935318</v>
+        <v>33.5481319385622</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>73.61390139071385</v>
+        <v>71.05533753715099</v>
       </c>
       <c r="D14" t="n">
-        <v>33.80956743564813</v>
+        <v>30.47269875060685</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.24839938894991</v>
+        <v>80.27757469216391</v>
       </c>
       <c r="D15" t="n">
-        <v>36.59485471020632</v>
+        <v>34.7594008979051</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.75141796732285</v>
+        <v>77.74832776732887</v>
       </c>
       <c r="D16" t="n">
-        <v>32.66372664713822</v>
+        <v>35.0053048425842</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>70.95855452145625</v>
+        <v>77.85592504430414</v>
       </c>
       <c r="D17" t="n">
-        <v>36.92307491459543</v>
+        <v>34.56216044689501</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>81.39349133823075</v>
+        <v>75.51806694197772</v>
       </c>
       <c r="D18" t="n">
-        <v>34.84136513487969</v>
+        <v>30.67120987016469</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.32966367042587</v>
+        <v>74.38370740985991</v>
       </c>
       <c r="D19" t="n">
-        <v>36.85261910704518</v>
+        <v>35.76056603144139</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.63916618490001</v>
+        <v>72.78714253602853</v>
       </c>
       <c r="D20" t="n">
-        <v>37.08291303672636</v>
+        <v>33.80395960023365</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>68.0770267230007</v>
+        <v>63.24021537295318</v>
       </c>
       <c r="D21" t="n">
-        <v>39.96175611543897</v>
+        <v>35.50049526979232</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.07291385302068</v>
+        <v>71.83165809330832</v>
       </c>
       <c r="D22" t="n">
-        <v>37.1656935629903</v>
+        <v>34.27248861930513</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.98410741622398</v>
+        <v>69.90671361952869</v>
       </c>
       <c r="D23" t="n">
-        <v>32.649533563868</v>
+        <v>29.99009558717995</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.70429389411569</v>
+        <v>68.98608032031612</v>
       </c>
       <c r="D24" t="n">
-        <v>33.77097707324035</v>
+        <v>34.51267379340894</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.53897320455413</v>
+        <v>58.0810069559971</v>
       </c>
       <c r="D25" t="n">
-        <v>35.84707775598402</v>
+        <v>35.01291416364508</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>62.57740707331424</v>
+        <v>64.9796301349307</v>
       </c>
       <c r="D26" t="n">
-        <v>33.9803181126508</v>
+        <v>36.98835976336574</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>60.61092164359343</v>
+        <v>59.80760542840098</v>
       </c>
       <c r="D27" t="n">
-        <v>37.79300612251719</v>
+        <v>33.13857605676822</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.0941366696039</v>
+        <v>63.26788436660221</v>
       </c>
       <c r="D28" t="n">
-        <v>38.05604783204643</v>
+        <v>38.2694943535017</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.79591654715943</v>
+        <v>62.45282581645068</v>
       </c>
       <c r="D29" t="n">
-        <v>44.60634961285604</v>
+        <v>35.65345968974795</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.15698841710924</v>
+        <v>58.82140425673651</v>
       </c>
       <c r="D30" t="n">
-        <v>32.82631094129228</v>
+        <v>37.98877696864619</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.43120440318487</v>
+        <v>61.8964439586394</v>
       </c>
       <c r="D31" t="n">
-        <v>34.69666174532129</v>
+        <v>32.68689138401901</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>63.15114117187829</v>
+        <v>50.61073734114708</v>
       </c>
       <c r="D32" t="n">
-        <v>32.76908400246209</v>
+        <v>31.99575616091417</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>54.75139072245921</v>
+        <v>52.68623724014952</v>
       </c>
       <c r="D33" t="n">
-        <v>36.01436898854836</v>
+        <v>34.43171227858763</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>63.3038125477025</v>
+        <v>49.77108327637162</v>
       </c>
       <c r="D34" t="n">
-        <v>39.14804052770292</v>
+        <v>41.24777164402406</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>65.34371935850318</v>
+        <v>48.9963859697807</v>
       </c>
       <c r="D35" t="n">
-        <v>33.81827395522038</v>
+        <v>38.27074268940608</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.39274820694754</v>
+        <v>49.99189233808588</v>
       </c>
       <c r="D36" t="n">
-        <v>37.46779483847385</v>
+        <v>38.7430871190024</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>52.71065705431283</v>
+        <v>51.78277322714653</v>
       </c>
       <c r="D37" t="n">
-        <v>35.38307231969969</v>
+        <v>38.03915651746998</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.12680802177254</v>
+        <v>49.41205381957226</v>
       </c>
       <c r="D38" t="n">
-        <v>33.47310490396442</v>
+        <v>36.69260109729439</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.12692089131919</v>
+        <v>51.73620754249948</v>
       </c>
       <c r="D39" t="n">
-        <v>37.9889433266833</v>
+        <v>35.76611094756438</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.08864702234194</v>
+        <v>47.06699228664027</v>
       </c>
       <c r="D40" t="n">
-        <v>33.16409372886655</v>
+        <v>36.8548102830396</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.58389649386732</v>
+        <v>51.67962296081298</v>
       </c>
       <c r="D41" t="n">
-        <v>37.34840367918396</v>
+        <v>35.23919405333795</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>44.38573647865824</v>
+        <v>58.48293785095323</v>
       </c>
       <c r="D42" t="n">
-        <v>38.24755042326847</v>
+        <v>33.46375727920454</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.21618807594795</v>
+        <v>43.57889940760889</v>
       </c>
       <c r="D43" t="n">
-        <v>37.45195356319438</v>
+        <v>37.00122085191358</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>43.29897414803557</v>
+        <v>39.78623257910061</v>
       </c>
       <c r="D44" t="n">
-        <v>40.04806701803086</v>
+        <v>37.07434630846981</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.27398712702041</v>
+        <v>44.53464312473384</v>
       </c>
       <c r="D45" t="n">
-        <v>38.26601852076051</v>
+        <v>39.8707726184826</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.47126194772452</v>
+        <v>40.74224153915758</v>
       </c>
       <c r="D46" t="n">
-        <v>37.76149040889386</v>
+        <v>31.4797036064928</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.58934101188424</v>
+        <v>43.30866456989472</v>
       </c>
       <c r="D47" t="n">
-        <v>33.17169291307783</v>
+        <v>36.4777929660483</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>41.63580547494844</v>
+        <v>39.53550620075877</v>
       </c>
       <c r="D48" t="n">
-        <v>36.24468108983694</v>
+        <v>32.90136913070091</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.00753204838404</v>
+        <v>38.38975073547965</v>
       </c>
       <c r="D49" t="n">
-        <v>37.17941948958611</v>
+        <v>37.26257468430262</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.53183809930527</v>
+        <v>39.00535400580423</v>
       </c>
       <c r="D50" t="n">
-        <v>36.5867867667161</v>
+        <v>34.96001474879051</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>47.34667908751629</v>
+        <v>39.92493317605329</v>
       </c>
       <c r="D51" t="n">
-        <v>40.03127406623941</v>
+        <v>37.01751184672079</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>42.633291069039</v>
+        <v>38.64039631376149</v>
       </c>
       <c r="D52" t="n">
-        <v>35.71571604632577</v>
+        <v>32.00715411111582</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.01495400987631</v>
+        <v>36.74172121792512</v>
       </c>
       <c r="D53" t="n">
-        <v>37.04683675638162</v>
+        <v>37.56195456326077</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>42.98100294712241</v>
+        <v>35.65251026236072</v>
       </c>
       <c r="D54" t="n">
-        <v>38.37949033124273</v>
+        <v>44.95624900446397</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.52465025192853</v>
+        <v>36.57691282064486</v>
       </c>
       <c r="D55" t="n">
-        <v>30.61967423169637</v>
+        <v>35.71561019277494</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.42482204045082</v>
+        <v>34.55038830129763</v>
       </c>
       <c r="D56" t="n">
-        <v>35.97012657480565</v>
+        <v>37.55430027859522</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.81480495325233</v>
+        <v>34.33859369109678</v>
       </c>
       <c r="D57" t="n">
-        <v>35.01450031479749</v>
+        <v>33.94962245190623</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>30.67921088432291</v>
+        <v>35.90515989101662</v>
       </c>
       <c r="D58" t="n">
-        <v>34.69784394278843</v>
+        <v>37.34173634357833</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.43629135973941</v>
+        <v>30.5879001408777</v>
       </c>
       <c r="D59" t="n">
-        <v>32.51672168898342</v>
+        <v>34.26826910987435</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>38.87340709565655</v>
+        <v>30.63780620914757</v>
       </c>
       <c r="D60" t="n">
-        <v>32.92480622929374</v>
+        <v>36.10800274603567</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.28206313000621</v>
+        <v>33.07183673821257</v>
       </c>
       <c r="D61" t="n">
-        <v>36.87796941964657</v>
+        <v>31.70685454762222</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.96953642491587</v>
+        <v>25.19795920418965</v>
       </c>
       <c r="D62" t="n">
-        <v>38.78034693416242</v>
+        <v>38.20149608103902</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>24.95320684047404</v>
+        <v>26.86487003214036</v>
       </c>
       <c r="D63" t="n">
-        <v>34.17386802041625</v>
+        <v>33.30044878101417</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.20964914088558</v>
+        <v>25.22049651221719</v>
       </c>
       <c r="D64" t="n">
-        <v>36.2793844656355</v>
+        <v>35.76388186660804</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.38216119804627</v>
+        <v>24.03432292358008</v>
       </c>
       <c r="D65" t="n">
-        <v>35.00558331534303</v>
+        <v>33.80444025728472</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>21.89669778433469</v>
+        <v>28.60795806964053</v>
       </c>
       <c r="D66" t="n">
-        <v>33.10744330874464</v>
+        <v>33.60199757813049</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.09367881294712</v>
+        <v>25.65748342966717</v>
       </c>
       <c r="D67" t="n">
-        <v>35.95812949272518</v>
+        <v>36.66307303861781</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>14.57422669276646</v>
+        <v>18.27570766119494</v>
       </c>
       <c r="D68" t="n">
-        <v>40.04926283142236</v>
+        <v>34.61523778823087</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.60706581647533</v>
+        <v>18.36625892735268</v>
       </c>
       <c r="D69" t="n">
-        <v>28.31592934360059</v>
+        <v>37.60794891930212</v>
       </c>
     </row>
   </sheetData>
